--- a/Documentations/Risk.xlsx
+++ b/Documentations/Risk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA-Software\Projects\Java Project 1\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D0760-C969-4D0B-82C7-0D643FF26836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ED210-F4FA-4FB6-8B84-8F083CFFA694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Hazard</t>
   </si>
@@ -238,13 +238,28 @@
   </si>
   <si>
     <t>Almost Certain                   5</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +270,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,14 +298,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -311,8 +310,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -354,16 +355,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFDC47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DE3AA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -383,30 +397,6 @@
       </top>
       <bottom style="double">
         <color theme="1" tint="9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,95 +483,428 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
-    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="7" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFDC47"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFDC47"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9DE3AA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9DE3AA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="double">
+          <color theme="1" tint="9.9978637043366805E-2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color theme="1" tint="9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9DE3AA"/>
+      <color rgb="FFFFDC47"/>
+      <color rgb="FFFFAFB9"/>
+      <color rgb="FFFFA3A7"/>
+      <color rgb="FFFF253F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,6 +914,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E421E110-D221-4332-B8D6-230D85615A35}" name="Table1" displayName="Table1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B2:G11" xr:uid="{B08EF7EC-B185-4CC0-8151-A5D162F30FF9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BE5A8473-2F47-49E8-8BBB-C6A8988DB27D}" name="Hazard" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{27A62BE5-4786-4B3A-BA3D-6D4813C28025}" name="Effect On Database/System" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C5C3766A-4C3D-4BE5-84DE-71FF0863EB0A}" name="Effect On Buisness" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1FE88E15-CD8E-4CEC-AE56-420B34FBE163}" name="Current Risk Control " dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{68B6DE76-935D-45F1-B533-B15F22593B94}" name="Probability of Hazard" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{FA71CCA0-0C46-42DC-9C51-A66C9060B616}" name="Severity" dataDxfId="11" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{672CAF2B-DE5B-4BED-93FF-57CD2345E90F}" name="Table2" displayName="Table2" ref="H2:H11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="H2:H11" xr:uid="{C5969F64-6748-4922-8FA1-55113A267B86}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CE6851A1-5121-4133-8C9D-09A4E5D2D5B8}" name="Total" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4255EE62-E50D-4A5A-AD86-311187FA0CBE}" name="Table3" displayName="Table3" ref="B13:G19" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B13:G19" xr:uid="{B040CF82-A1AC-4F31-B92D-D1B0370AF280}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{14BE8299-8178-4302-8137-73DAC4CB40FB}" name="Column1" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{D5EE1DF3-6024-4E3D-A34F-C4245C747F46}" name="Consequence" dataDxfId="3" dataCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{A3F4C31A-28F8-4B72-B4AD-C0EE5FA6BC2E}" name="Column2" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{C60B3CAE-106D-4293-93D4-35791EBEF0CA}" name="Column3" dataDxfId="1" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{74893042-258D-40D4-9459-3F39764DFE4D}" name="Column4" dataDxfId="0" dataCellStyle="Neutral"/>
+    <tableColumn id="6" xr3:uid="{3632C031-D011-43FE-8A87-D417C47E5D7F}" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD2ED5-31A3-44DB-9E34-CEE6D43F2DFC}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,377 +1266,389 @@
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="13">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="13">
         <v>5</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="13">
         <v>4</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="13">
         <v>4</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="13">
         <v>3</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="19">
         <v>5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="15">
         <v>10</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="17">
         <v>15</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="17">
         <v>20</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="20">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="15">
         <v>8</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="16">
         <v>12</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="18">
         <v>16</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="20">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="21">
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="16">
         <v>9</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="16">
         <v>12</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="20">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="21">
         <v>4</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="16">
         <v>6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="16">
         <v>8</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="21">
         <v>3</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="16">
         <v>4</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="16">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C13:G13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1298,146 +1673,146 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>25</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>16</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>20</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>9</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>12</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>15</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>8</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="3"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L11" s="1"/>
